--- a/Dados quantitativos.xlsx
+++ b/Dados quantitativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\mip-serverless-tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB879D-8D23-4849-B15B-54E441E29E50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E57423-9349-426B-B74D-44DD3025B037}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01A75E4F-9417-4995-9B49-FD76B4691CA8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Versão 1.0.3 MIP</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Number of Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,12 +450,12 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -463,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -474,21 +477,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>7393</v>
+        <v>7350</v>
       </c>
       <c r="C4" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -504,9 +508,11 @@
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -523,24 +529,25 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="C8" s="1">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D8" s="1">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="E8" s="1">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>

--- a/Dados quantitativos.xlsx
+++ b/Dados quantitativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\mip-serverless-tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E57423-9349-426B-B74D-44DD3025B037}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD9DA60-6805-4929-9155-E8CBD54E495C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01A75E4F-9417-4995-9B49-FD76B4691CA8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Versão 1.0.3 MIP</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Versão Original</t>
   </si>
   <si>
-    <t>Versão Lambda</t>
-  </si>
-  <si>
     <t>CLOC</t>
   </si>
   <si>
@@ -67,6 +64,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Front End Lambda</t>
+  </si>
+  <si>
+    <t>Funções Lambda</t>
+  </si>
+  <si>
+    <t>Projeto Lambda (Somado)</t>
   </si>
 </sst>
 </file>
@@ -90,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -125,6 +137,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233BBB9B-BA42-4AC9-908E-0C162110DB22}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -457,29 +481,29 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>7219</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>7350</v>
@@ -489,72 +513,127 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1546</v>
+      </c>
+      <c r="C5" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUM(B4:B5)</f>
+        <v>8896</v>
+      </c>
+      <c r="C6" s="9">
+        <f>SUM(C4:C5)</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1023</v>
+      </c>
+      <c r="C9" s="8">
+        <v>565</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1904</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1023</v>
-      </c>
-      <c r="C7" s="1">
-        <v>565</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1904</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
         <v>1047</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="1">
         <v>557</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="1">
         <v>1940</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E10" s="1">
         <v>1075</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>325</v>
+      </c>
+      <c r="C11" s="1">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1">
+        <v>376</v>
+      </c>
+      <c r="E11" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <f>SUM(B10:B11)</f>
+        <v>1372</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" ref="C12:E12" si="0">SUM(C10:C11)</f>
+        <v>625</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>2316</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
